--- a/database/temp/target.xlsx
+++ b/database/temp/target.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Upwork\2020\gmail_app\gmail_app\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Upwork\2020\gmail_app\gmail_app_old\gmail_app_old\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7656"/>
   </bookViews>
   <sheets>
     <sheet name="target" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>TONAME</t>
   </si>
@@ -27,134 +27,59 @@
     <t>EMAIL</t>
   </si>
   <si>
-    <t>Elva</t>
-  </si>
-  <si>
-    <t>Lynn</t>
-  </si>
-  <si>
-    <t>Daphne</t>
-  </si>
-  <si>
-    <t>Boone</t>
-  </si>
-  <si>
-    <t>Loretta</t>
-  </si>
-  <si>
-    <t>Douglas</t>
-  </si>
-  <si>
-    <t>Rene</t>
-  </si>
-  <si>
-    <t>Huber</t>
-  </si>
-  <si>
-    <t>Paula</t>
-  </si>
-  <si>
-    <t>Robertson</t>
-  </si>
-  <si>
-    <t>Keri</t>
-  </si>
-  <si>
-    <t>Long</t>
-  </si>
-  <si>
-    <t>Polly</t>
-  </si>
-  <si>
-    <t>Whitehead</t>
-  </si>
-  <si>
-    <t>Samantha.Browning.1980@gmail.com</t>
-  </si>
-  <si>
-    <t>Sophie.Carr.1982@gmail.com</t>
-  </si>
-  <si>
-    <t>Judith.Holland.1983@gmail.com</t>
-  </si>
-  <si>
-    <t>Jeanie.Michael.1984@gmail.com</t>
-  </si>
-  <si>
-    <t>Kathrine.Armstrong.1985@gmail.com</t>
-  </si>
-  <si>
-    <t>Wendy.Stafford.1986@gmail.com</t>
-  </si>
-  <si>
-    <t>Melanie.Sellers.1987@gmail.com</t>
-  </si>
-  <si>
-    <t>Beverley.Snow.1988@gmail.com</t>
-  </si>
-  <si>
-    <t>Becky.Ramsey.1989@gmail.com</t>
-  </si>
-  <si>
-    <t>Jamie.Hendricks.1991@gmail.com</t>
-  </si>
-  <si>
-    <t>Mai.Merritt.1992@gmail.com</t>
-  </si>
-  <si>
-    <t>Kristina.Clayton.1980@gmail.com</t>
-  </si>
-  <si>
-    <t>Noelle.Warren.1981@gmail.com</t>
-  </si>
-  <si>
-    <t>Freda.Whitney.1982@gmail.com</t>
-  </si>
-  <si>
-    <t>Jordan.Mendoza.1984@gmail.com</t>
-  </si>
-  <si>
-    <t>Alejandra.Moss.1984@gmail.com</t>
-  </si>
-  <si>
-    <t>Sandy.Hawkins.1985@gmail.com</t>
-  </si>
-  <si>
-    <t>Paula.Robertson2000@gmail.com</t>
-  </si>
-  <si>
-    <t>Keri.Long1998@gmail.com</t>
-  </si>
-  <si>
-    <t>Polly.Whitehead1997@gmail.com</t>
-  </si>
-  <si>
-    <t>Anne.Carlson1999@gmail.com</t>
-  </si>
-  <si>
-    <t>Aurelia.Rodriquez1995@gmail.com</t>
-  </si>
-  <si>
-    <t>Courtney.Holcomb.1992@gmail.com</t>
-  </si>
-  <si>
-    <t>Jill.Middleton.1980@gmail.com</t>
-  </si>
-  <si>
-    <t>Justine.Lester.1981@gmail.com</t>
-  </si>
-  <si>
-    <t>Ola.Hampton.1982@gmail.com</t>
-  </si>
-  <si>
-    <t>Earlene.Simon.1983@gmail.com</t>
+    <t>Adele</t>
+  </si>
+  <si>
+    <t>adeleputnam310@gmail.com</t>
+  </si>
+  <si>
+    <t>Melany</t>
+  </si>
+  <si>
+    <t>melanymoss86@gmail.com</t>
+  </si>
+  <si>
+    <t>Khalilah</t>
+  </si>
+  <si>
+    <t>hopekhalilah110@gmail.com</t>
+  </si>
+  <si>
+    <t>Angela</t>
+  </si>
+  <si>
+    <t>angelacoffman453@gmail.com</t>
+  </si>
+  <si>
+    <t>Joie</t>
+  </si>
+  <si>
+    <t>joiehacker719@gmail.com</t>
+  </si>
+  <si>
+    <t>Enzim</t>
+  </si>
+  <si>
+    <t>en2contact@gmail.com</t>
+  </si>
+  <si>
+    <t>Karri</t>
+  </si>
+  <si>
+    <t>krush4092@gmail.com</t>
+  </si>
+  <si>
+    <t>Loralee</t>
+  </si>
+  <si>
+    <t>rhodesloralee@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,6 +213,21 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF5F6368"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="33">
@@ -587,7 +527,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -630,14 +570,14 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -671,6 +611,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -957,15 +898,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G2" sqref="G2:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -991,184 +932,87 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="H9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H9" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H28" t="s">
-        <v>42</v>
-      </c>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H11" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H14" s="1"/>
+    </row>
+    <row r="30" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H30" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H3:H11" r:id="rId1" display="shahimrans64@gmail.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>